--- a/dataanalysis/data/predictions/1600/08071548_1553.xlsx
+++ b/dataanalysis/data/predictions/1600/08071548_1553.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="172">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-07</t>
   </si>
   <si>
@@ -527,12 +530,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -890,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AI85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,19 +996,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300030</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>8.529999999999999</v>
@@ -1029,7 +1029,7 @@
         <v>59478.27</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1070,8 +1070,23 @@
       <c r="W2">
         <v>0.72</v>
       </c>
+      <c r="X2">
+        <v>-3.34</v>
+      </c>
+      <c r="Y2">
+        <v>9.57</v>
+      </c>
+      <c r="Z2">
+        <v>3.01</v>
+      </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1079,22 +1094,25 @@
       <c r="AG2">
         <v>2.395604372024536</v>
       </c>
-      <c r="AH2" t="s">
-        <v>171</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300066</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>9.76</v>
@@ -1112,7 +1130,7 @@
         <v>124640.54</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1153,8 +1171,23 @@
       <c r="W3">
         <v>1.08</v>
       </c>
+      <c r="X3">
+        <v>8.74</v>
+      </c>
+      <c r="Y3">
+        <v>7.57</v>
+      </c>
+      <c r="Z3">
+        <v>16.1</v>
+      </c>
       <c r="AC3" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1162,22 +1195,25 @@
       <c r="AG3">
         <v>2.132818937301636</v>
       </c>
-      <c r="AH3" t="s">
-        <v>171</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300069</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.76</v>
@@ -1195,7 +1231,7 @@
         <v>54872.66</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1236,8 +1272,23 @@
       <c r="W4">
         <v>-0.63</v>
       </c>
+      <c r="X4">
+        <v>9.02</v>
+      </c>
+      <c r="Y4">
+        <v>30.77</v>
+      </c>
+      <c r="Z4">
+        <v>12.38</v>
+      </c>
       <c r="AC4" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1245,22 +1296,25 @@
       <c r="AG4">
         <v>10.19035530090332</v>
       </c>
-      <c r="AH4" t="s">
-        <v>171</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300095</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.68</v>
@@ -1278,7 +1332,7 @@
         <v>70562.84</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1319,8 +1373,23 @@
       <c r="W5">
         <v>-0.91</v>
       </c>
+      <c r="X5">
+        <v>-3.91</v>
+      </c>
+      <c r="Y5">
+        <v>11.68</v>
+      </c>
+      <c r="Z5">
+        <v>-0.76</v>
+      </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1328,22 +1397,25 @@
       <c r="AG5">
         <v>8.134066581726074</v>
       </c>
-      <c r="AH5" t="s">
-        <v>171</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300199</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-0.9399999999999999</v>
@@ -1361,7 +1433,7 @@
         <v>319615.97</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1402,8 +1474,23 @@
       <c r="W6">
         <v>-1.25</v>
       </c>
+      <c r="X6">
+        <v>2.42</v>
+      </c>
+      <c r="Y6">
+        <v>24.67</v>
+      </c>
+      <c r="Z6">
+        <v>6.43</v>
+      </c>
       <c r="AC6" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1411,22 +1498,25 @@
       <c r="AG6">
         <v>5.855242252349854</v>
       </c>
-      <c r="AH6" t="s">
-        <v>171</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300224</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>20.01</v>
@@ -1444,7 +1534,7 @@
         <v>287961.73</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1485,8 +1575,23 @@
       <c r="W7">
         <v>3.02</v>
       </c>
+      <c r="X7">
+        <v>-3.68</v>
+      </c>
+      <c r="Y7">
+        <v>19.05</v>
+      </c>
+      <c r="Z7">
+        <v>0.21</v>
+      </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1494,22 +1599,25 @@
       <c r="AG7">
         <v>9.034223556518555</v>
       </c>
-      <c r="AH7" t="s">
-        <v>171</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300289</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>20.02</v>
@@ -1527,7 +1635,7 @@
         <v>106102.08</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1568,8 +1676,23 @@
       <c r="W8">
         <v>3.32</v>
       </c>
+      <c r="X8">
+        <v>11.87</v>
+      </c>
+      <c r="Y8">
+        <v>11.67</v>
+      </c>
+      <c r="Z8">
+        <v>19.45</v>
+      </c>
       <c r="AC8" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1577,22 +1700,25 @@
       <c r="AG8">
         <v>10.38482475280762</v>
       </c>
-      <c r="AH8" t="s">
-        <v>172</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300322</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -1610,7 +1736,7 @@
         <v>386228.07</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -1651,8 +1777,23 @@
       <c r="W9">
         <v>5.58</v>
       </c>
+      <c r="X9">
+        <v>4.41</v>
+      </c>
+      <c r="Y9">
+        <v>28.2</v>
+      </c>
+      <c r="Z9">
+        <v>8.050000000000001</v>
+      </c>
       <c r="AC9" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1660,22 +1801,25 @@
       <c r="AG9">
         <v>8.607603073120117</v>
       </c>
-      <c r="AH9" t="s">
-        <v>172</v>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300329</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.7</v>
@@ -1693,7 +1837,7 @@
         <v>48029.22</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1734,8 +1878,23 @@
       <c r="W10">
         <v>1.22</v>
       </c>
+      <c r="X10">
+        <v>-5.81</v>
+      </c>
+      <c r="Y10">
+        <v>12.69</v>
+      </c>
+      <c r="Z10">
+        <v>-1.63</v>
+      </c>
       <c r="AC10" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1743,22 +1902,25 @@
       <c r="AG10">
         <v>3.64237642288208</v>
       </c>
-      <c r="AH10" t="s">
-        <v>171</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300350</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>5.9</v>
@@ -1776,7 +1938,7 @@
         <v>64208.36</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1817,8 +1979,23 @@
       <c r="W11">
         <v>0.91</v>
       </c>
+      <c r="X11">
+        <v>-3.57</v>
+      </c>
+      <c r="Y11">
+        <v>6.95</v>
+      </c>
+      <c r="Z11">
+        <v>-0.71</v>
+      </c>
       <c r="AC11" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1826,22 +2003,25 @@
       <c r="AG11">
         <v>2.350479364395142</v>
       </c>
-      <c r="AH11" t="s">
-        <v>171</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300378</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.36</v>
@@ -1859,7 +2039,7 @@
         <v>284041.37</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1900,8 +2080,23 @@
       <c r="W12">
         <v>-0.33</v>
       </c>
+      <c r="X12">
+        <v>-15.99</v>
+      </c>
+      <c r="Y12">
+        <v>62.8</v>
+      </c>
+      <c r="Z12">
+        <v>-4.93</v>
+      </c>
       <c r="AC12" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1909,22 +2104,25 @@
       <c r="AG12">
         <v>4.9563307762146</v>
       </c>
-      <c r="AH12" t="s">
-        <v>171</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300397</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.19</v>
@@ -1942,7 +2140,7 @@
         <v>86507.21000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1983,8 +2181,23 @@
       <c r="W13">
         <v>0.84</v>
       </c>
+      <c r="X13">
+        <v>-3.38</v>
+      </c>
+      <c r="Y13">
+        <v>15.34</v>
+      </c>
+      <c r="Z13">
+        <v>-0.26</v>
+      </c>
       <c r="AC13" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1992,22 +2205,25 @@
       <c r="AG13">
         <v>1.878821134567261</v>
       </c>
-      <c r="AH13" t="s">
-        <v>171</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.9399999999999999</v>
@@ -2025,7 +2241,7 @@
         <v>205710.85</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K14">
         <v>26</v>
@@ -2066,8 +2282,23 @@
       <c r="W14">
         <v>-0.75</v>
       </c>
+      <c r="X14">
+        <v>2.03</v>
+      </c>
+      <c r="Y14">
+        <v>124.4</v>
+      </c>
+      <c r="Z14">
+        <v>6.75</v>
+      </c>
       <c r="AC14" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2075,22 +2306,25 @@
       <c r="AG14">
         <v>3.852091789245605</v>
       </c>
-      <c r="AH14" t="s">
-        <v>171</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300455</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>7.21</v>
@@ -2108,7 +2342,7 @@
         <v>144868.85</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2149,8 +2383,23 @@
       <c r="W15">
         <v>0.34</v>
       </c>
+      <c r="X15">
+        <v>10.64</v>
+      </c>
+      <c r="Y15">
+        <v>21.42</v>
+      </c>
+      <c r="Z15">
+        <v>20</v>
+      </c>
       <c r="AC15" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2158,22 +2407,25 @@
       <c r="AG15">
         <v>0.7359567284584045</v>
       </c>
-      <c r="AH15" t="s">
-        <v>171</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300486</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.41</v>
@@ -2191,7 +2443,7 @@
         <v>164571.57</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2232,8 +2484,23 @@
       <c r="W16">
         <v>-0.03</v>
       </c>
+      <c r="X16">
+        <v>-11.06</v>
+      </c>
+      <c r="Y16">
+        <v>16.8</v>
+      </c>
+      <c r="Z16">
+        <v>-3.72</v>
+      </c>
       <c r="AC16" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2241,22 +2508,25 @@
       <c r="AG16">
         <v>3.577157020568848</v>
       </c>
-      <c r="AH16" t="s">
-        <v>171</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300539</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.76</v>
@@ -2274,7 +2544,7 @@
         <v>58115.33</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2315,8 +2585,23 @@
       <c r="W17">
         <v>1.66</v>
       </c>
+      <c r="X17">
+        <v>5.73</v>
+      </c>
+      <c r="Y17">
+        <v>26.88</v>
+      </c>
+      <c r="Z17">
+        <v>7.69</v>
+      </c>
       <c r="AC17" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2324,22 +2609,25 @@
       <c r="AG17">
         <v>3.225924491882324</v>
       </c>
-      <c r="AH17" t="s">
-        <v>171</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300554</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.37</v>
@@ -2357,7 +2645,7 @@
         <v>51495.26</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2398,8 +2686,23 @@
       <c r="W18">
         <v>-0.4</v>
       </c>
+      <c r="X18">
+        <v>-5.12</v>
+      </c>
+      <c r="Y18">
+        <v>26.16</v>
+      </c>
+      <c r="Z18">
+        <v>-1.54</v>
+      </c>
       <c r="AC18" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2407,22 +2710,25 @@
       <c r="AG18">
         <v>-0.9427812695503235</v>
       </c>
-      <c r="AH18" t="s">
-        <v>171</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300572</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-7.34</v>
@@ -2440,7 +2746,7 @@
         <v>140518</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2481,8 +2787,23 @@
       <c r="W19">
         <v>-3.19</v>
       </c>
+      <c r="X19">
+        <v>-6.74</v>
+      </c>
+      <c r="Y19">
+        <v>28.6</v>
+      </c>
+      <c r="Z19">
+        <v>-1.11</v>
+      </c>
       <c r="AC19" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2490,22 +2811,25 @@
       <c r="AG19">
         <v>3.649633884429932</v>
       </c>
-      <c r="AH19" t="s">
-        <v>171</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300588</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>2.31</v>
@@ -2523,7 +2847,7 @@
         <v>45146.15</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2564,8 +2888,23 @@
       <c r="W20">
         <v>0.55</v>
       </c>
+      <c r="X20">
+        <v>7.58</v>
+      </c>
+      <c r="Y20">
+        <v>21.54</v>
+      </c>
+      <c r="Z20">
+        <v>8.130000000000001</v>
+      </c>
       <c r="AC20" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2573,22 +2912,25 @@
       <c r="AG20">
         <v>0.3906710743904114</v>
       </c>
-      <c r="AH20" t="s">
-        <v>171</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300591</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>3.57</v>
@@ -2606,7 +2948,7 @@
         <v>238438.71</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2647,8 +2989,23 @@
       <c r="W21">
         <v>-1.66</v>
       </c>
+      <c r="X21">
+        <v>-4.76</v>
+      </c>
+      <c r="Y21">
+        <v>15.08</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
       <c r="AC21" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2656,22 +3013,25 @@
       <c r="AG21">
         <v>5.949140548706055</v>
       </c>
-      <c r="AH21" t="s">
-        <v>171</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300600</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>8.02</v>
@@ -2689,7 +3049,7 @@
         <v>188270.75</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2730,8 +3090,23 @@
       <c r="W22">
         <v>-3.2</v>
       </c>
+      <c r="X22">
+        <v>-5.81</v>
+      </c>
+      <c r="Y22">
+        <v>23.5</v>
+      </c>
+      <c r="Z22">
+        <v>5.1</v>
+      </c>
       <c r="AC22" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2739,22 +3114,25 @@
       <c r="AG22">
         <v>7.333417892456055</v>
       </c>
-      <c r="AH22" t="s">
-        <v>171</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300609</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>4.66</v>
@@ -2772,7 +3150,7 @@
         <v>59570.21</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2813,8 +3191,23 @@
       <c r="W23">
         <v>1.21</v>
       </c>
+      <c r="X23">
+        <v>-3.11</v>
+      </c>
+      <c r="Y23">
+        <v>47.87</v>
+      </c>
+      <c r="Z23">
+        <v>-0.02</v>
+      </c>
       <c r="AC23" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2822,22 +3215,25 @@
       <c r="AG23">
         <v>4.207433223724365</v>
       </c>
-      <c r="AH23" t="s">
-        <v>171</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300624</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.55</v>
@@ -2855,7 +3251,7 @@
         <v>191940.94</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2896,8 +3292,23 @@
       <c r="W24">
         <v>-0.13</v>
       </c>
+      <c r="X24">
+        <v>-11.53</v>
+      </c>
+      <c r="Y24">
+        <v>83.45</v>
+      </c>
+      <c r="Z24">
+        <v>-4.27</v>
+      </c>
       <c r="AC24" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2905,22 +3316,25 @@
       <c r="AG24">
         <v>4.583332538604736</v>
       </c>
-      <c r="AH24" t="s">
-        <v>171</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300644</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-3.39</v>
@@ -2938,7 +3352,7 @@
         <v>97021.53</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2979,8 +3393,23 @@
       <c r="W25">
         <v>-1.73</v>
       </c>
+      <c r="X25">
+        <v>-5.04</v>
+      </c>
+      <c r="Y25">
+        <v>40.25</v>
+      </c>
+      <c r="Z25">
+        <v>-0.57</v>
+      </c>
       <c r="AC25" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2988,22 +3417,25 @@
       <c r="AG25">
         <v>2.512370347976685</v>
       </c>
-      <c r="AH25" t="s">
-        <v>171</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300648</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.15</v>
@@ -3021,7 +3453,7 @@
         <v>55340.76</v>
       </c>
       <c r="J26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -3062,8 +3494,23 @@
       <c r="W26">
         <v>0.37</v>
       </c>
+      <c r="X26">
+        <v>2.01</v>
+      </c>
+      <c r="Y26">
+        <v>56.98</v>
+      </c>
+      <c r="Z26">
+        <v>3.94</v>
+      </c>
       <c r="AC26" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3071,22 +3518,25 @@
       <c r="AG26">
         <v>7.643226146697998</v>
       </c>
-      <c r="AH26" t="s">
-        <v>171</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300689</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>2.39</v>
@@ -3104,7 +3554,7 @@
         <v>81387.94</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3145,8 +3595,23 @@
       <c r="W27">
         <v>-0.82</v>
       </c>
+      <c r="X27">
+        <v>-1.93</v>
+      </c>
+      <c r="Y27">
+        <v>64.7</v>
+      </c>
+      <c r="Z27">
+        <v>4.09</v>
+      </c>
       <c r="AC27" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3154,22 +3619,25 @@
       <c r="AG27">
         <v>7.519940376281738</v>
       </c>
-      <c r="AH27" t="s">
-        <v>171</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300696</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.45</v>
@@ -3187,7 +3655,7 @@
         <v>128448.12</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3228,8 +3696,23 @@
       <c r="W28">
         <v>-0.44</v>
       </c>
+      <c r="X28">
+        <v>6.06</v>
+      </c>
+      <c r="Y28">
+        <v>34.35</v>
+      </c>
+      <c r="Z28">
+        <v>9.529999999999999</v>
+      </c>
       <c r="AC28" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3237,22 +3720,25 @@
       <c r="AG28">
         <v>3.711566209793091</v>
       </c>
-      <c r="AH28" t="s">
-        <v>171</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300706</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>19.99</v>
@@ -3270,7 +3756,7 @@
         <v>157350.34</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -3311,8 +3797,23 @@
       <c r="W29">
         <v>1.67</v>
       </c>
+      <c r="X29">
+        <v>-6.08</v>
+      </c>
+      <c r="Y29">
+        <v>51.51</v>
+      </c>
+      <c r="Z29">
+        <v>8.08</v>
+      </c>
       <c r="AC29" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3320,22 +3821,25 @@
       <c r="AG29">
         <v>5.542849540710449</v>
       </c>
-      <c r="AH29" t="s">
-        <v>171</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300731</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.42</v>
@@ -3353,7 +3857,7 @@
         <v>161902.31</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3394,8 +3898,23 @@
       <c r="W30">
         <v>-0.27</v>
       </c>
+      <c r="X30">
+        <v>4.62</v>
+      </c>
+      <c r="Y30">
+        <v>51.22</v>
+      </c>
+      <c r="Z30">
+        <v>7.18</v>
+      </c>
       <c r="AC30" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3403,22 +3922,25 @@
       <c r="AG30">
         <v>-0.4998446702957153</v>
       </c>
-      <c r="AH30" t="s">
-        <v>171</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300732</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.89</v>
@@ -3436,7 +3958,7 @@
         <v>52230.36</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3477,8 +3999,23 @@
       <c r="W31">
         <v>0.34</v>
       </c>
+      <c r="X31">
+        <v>12.78</v>
+      </c>
+      <c r="Y31">
+        <v>12.88</v>
+      </c>
+      <c r="Z31">
+        <v>19.26</v>
+      </c>
       <c r="AC31" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3486,22 +4023,25 @@
       <c r="AG31">
         <v>0.8742876052856445</v>
       </c>
-      <c r="AH31" t="s">
-        <v>171</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300733</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>7.1</v>
@@ -3519,7 +4059,7 @@
         <v>100501.43</v>
       </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -3560,8 +4100,23 @@
       <c r="W32">
         <v>0.22</v>
       </c>
+      <c r="X32">
+        <v>-6.94</v>
+      </c>
+      <c r="Y32">
+        <v>24.8</v>
+      </c>
+      <c r="Z32">
+        <v>-1.59</v>
+      </c>
       <c r="AC32" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3569,22 +4124,25 @@
       <c r="AG32">
         <v>2.858221530914307</v>
       </c>
-      <c r="AH32" t="s">
-        <v>171</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300767</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.08</v>
@@ -3602,7 +4160,7 @@
         <v>65227.66</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3643,8 +4201,23 @@
       <c r="W33">
         <v>-0.73</v>
       </c>
+      <c r="X33">
+        <v>-1.54</v>
+      </c>
+      <c r="Y33">
+        <v>17.36</v>
+      </c>
+      <c r="Z33">
+        <v>2.84</v>
+      </c>
       <c r="AC33" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3652,22 +4225,25 @@
       <c r="AG33">
         <v>4.438307762145996</v>
       </c>
-      <c r="AH33" t="s">
-        <v>171</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300830</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>9.779999999999999</v>
@@ -3685,7 +4261,7 @@
         <v>174580.49</v>
       </c>
       <c r="J34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3726,8 +4302,23 @@
       <c r="W34">
         <v>0.64</v>
       </c>
+      <c r="X34">
+        <v>-12.9</v>
+      </c>
+      <c r="Y34">
+        <v>14.25</v>
+      </c>
+      <c r="Z34">
+        <v>-5.25</v>
+      </c>
       <c r="AC34" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3735,22 +4326,25 @@
       <c r="AG34">
         <v>5.749799728393555</v>
       </c>
-      <c r="AH34" t="s">
-        <v>171</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300835</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>7.72</v>
@@ -3768,7 +4362,7 @@
         <v>117604.51</v>
       </c>
       <c r="J35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>13</v>
@@ -3809,8 +4403,23 @@
       <c r="W35">
         <v>-0.68</v>
       </c>
+      <c r="X35">
+        <v>-3.48</v>
+      </c>
+      <c r="Y35">
+        <v>59.71</v>
+      </c>
+      <c r="Z35">
+        <v>-1.14</v>
+      </c>
       <c r="AC35" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3818,22 +4427,25 @@
       <c r="AG35">
         <v>4.497166156768799</v>
       </c>
-      <c r="AH35" t="s">
-        <v>171</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300875</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>6.3</v>
@@ -3851,7 +4463,7 @@
         <v>171792.22</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3892,8 +4504,23 @@
       <c r="W36">
         <v>-1.53</v>
       </c>
+      <c r="X36">
+        <v>0.62</v>
+      </c>
+      <c r="Y36">
+        <v>69</v>
+      </c>
+      <c r="Z36">
+        <v>11.8</v>
+      </c>
       <c r="AC36" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3901,22 +4528,25 @@
       <c r="AG36">
         <v>4.005854606628418</v>
       </c>
-      <c r="AH36" t="s">
-        <v>171</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300885</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>6.76</v>
@@ -3934,7 +4564,7 @@
         <v>143205.18</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -3975,8 +4605,23 @@
       <c r="W37">
         <v>-1.07</v>
       </c>
+      <c r="X37">
+        <v>-4.77</v>
+      </c>
+      <c r="Y37">
+        <v>29.7</v>
+      </c>
+      <c r="Z37">
+        <v>-3.6</v>
+      </c>
       <c r="AC37" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3984,22 +4629,25 @@
       <c r="AG37">
         <v>3.794092655181885</v>
       </c>
-      <c r="AH37" t="s">
-        <v>171</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300903</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.34</v>
@@ -4017,7 +4665,7 @@
         <v>109779.21</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -4058,8 +4706,23 @@
       <c r="W38">
         <v>-0.62</v>
       </c>
+      <c r="X38">
+        <v>-4.54</v>
+      </c>
+      <c r="Y38">
+        <v>12.98</v>
+      </c>
+      <c r="Z38">
+        <v>-0.15</v>
+      </c>
       <c r="AC38" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4067,22 +4730,25 @@
       <c r="AG38">
         <v>2.699838876724243</v>
       </c>
-      <c r="AH38" t="s">
-        <v>171</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300916</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-4.63</v>
@@ -4100,7 +4766,7 @@
         <v>56588.47</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4141,8 +4807,23 @@
       <c r="W39">
         <v>0.2</v>
       </c>
+      <c r="X39">
+        <v>2.33</v>
+      </c>
+      <c r="Y39">
+        <v>42.28</v>
+      </c>
+      <c r="Z39">
+        <v>2.65</v>
+      </c>
       <c r="AC39" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4150,22 +4831,25 @@
       <c r="AG39">
         <v>5.313038349151611</v>
       </c>
-      <c r="AH39" t="s">
-        <v>171</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300943</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.32</v>
@@ -4183,7 +4867,7 @@
         <v>58725.14</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4224,8 +4908,23 @@
       <c r="W40">
         <v>1.44</v>
       </c>
+      <c r="X40">
+        <v>3.76</v>
+      </c>
+      <c r="Y40">
+        <v>20.88</v>
+      </c>
+      <c r="Z40">
+        <v>15.36</v>
+      </c>
       <c r="AC40" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4233,22 +4932,25 @@
       <c r="AG40">
         <v>2.714062929153442</v>
       </c>
-      <c r="AH40" t="s">
-        <v>171</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300965</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-4.45</v>
@@ -4266,7 +4968,7 @@
         <v>64616.67</v>
       </c>
       <c r="J41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4307,8 +5009,23 @@
       <c r="W41">
         <v>0.57</v>
       </c>
+      <c r="X41">
+        <v>-7.06</v>
+      </c>
+      <c r="Y41">
+        <v>86.03</v>
+      </c>
+      <c r="Z41">
+        <v>-2.14</v>
+      </c>
       <c r="AC41" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4316,22 +5033,25 @@
       <c r="AG41">
         <v>10.53055191040039</v>
       </c>
-      <c r="AH41" t="s">
-        <v>171</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300993</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.22</v>
@@ -4349,7 +5069,7 @@
         <v>35704.06</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4390,8 +5110,23 @@
       <c r="W42">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X42">
+        <v>-1.43</v>
+      </c>
+      <c r="Y42">
+        <v>16.36</v>
+      </c>
+      <c r="Z42">
+        <v>1.36</v>
+      </c>
       <c r="AC42" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4399,22 +5134,25 @@
       <c r="AG42">
         <v>1.789764642715454</v>
       </c>
-      <c r="AH42" t="s">
-        <v>171</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301005</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>2.84</v>
@@ -4432,7 +5170,7 @@
         <v>77056.06</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4473,8 +5211,23 @@
       <c r="W43">
         <v>0.78</v>
       </c>
+      <c r="X43">
+        <v>1.42</v>
+      </c>
+      <c r="Y43">
+        <v>48.61</v>
+      </c>
+      <c r="Z43">
+        <v>5.88</v>
+      </c>
       <c r="AC43" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4482,22 +5235,25 @@
       <c r="AG43">
         <v>3.398929119110107</v>
       </c>
-      <c r="AH43" t="s">
-        <v>171</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301022</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.43</v>
@@ -4515,7 +5271,7 @@
         <v>36948.72</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4556,8 +5312,23 @@
       <c r="W44">
         <v>0.4</v>
       </c>
+      <c r="X44">
+        <v>-3.98</v>
+      </c>
+      <c r="Y44">
+        <v>42.72</v>
+      </c>
+      <c r="Z44">
+        <v>2.94</v>
+      </c>
       <c r="AC44" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4565,22 +5336,25 @@
       <c r="AG44">
         <v>3.431630611419678</v>
       </c>
-      <c r="AH44" t="s">
-        <v>171</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301052</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.48</v>
@@ -4598,7 +5372,7 @@
         <v>33565.58</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4639,8 +5413,23 @@
       <c r="W45">
         <v>-0.82</v>
       </c>
+      <c r="X45">
+        <v>0.28</v>
+      </c>
+      <c r="Y45">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>1.89</v>
+      </c>
       <c r="AC45" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4648,22 +5437,25 @@
       <c r="AG45">
         <v>6.643363952636719</v>
       </c>
-      <c r="AH45" t="s">
-        <v>171</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301069</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -4681,7 +5473,7 @@
         <v>162317.9</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4722,8 +5514,23 @@
       <c r="W46">
         <v>-1.22</v>
       </c>
+      <c r="X46">
+        <v>-4.97</v>
+      </c>
+      <c r="Y46">
+        <v>21.9</v>
+      </c>
+      <c r="Z46">
+        <v>0.88</v>
+      </c>
       <c r="AC46" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4731,22 +5538,25 @@
       <c r="AG46">
         <v>3.293830871582031</v>
       </c>
-      <c r="AH46" t="s">
-        <v>171</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301076</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>10.39</v>
@@ -4764,7 +5574,7 @@
         <v>224106.62</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4805,8 +5615,23 @@
       <c r="W47">
         <v>-2.81</v>
       </c>
+      <c r="X47">
+        <v>-11.81</v>
+      </c>
+      <c r="Y47">
+        <v>47.95</v>
+      </c>
+      <c r="Z47">
+        <v>-2.56</v>
+      </c>
       <c r="AC47" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4814,22 +5639,25 @@
       <c r="AG47">
         <v>11.53582859039307</v>
       </c>
-      <c r="AH47" t="s">
-        <v>171</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301095</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.47</v>
@@ -4847,7 +5675,7 @@
         <v>121261.52</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -4888,8 +5716,23 @@
       <c r="W48">
         <v>0.26</v>
       </c>
+      <c r="X48">
+        <v>-5.03</v>
+      </c>
+      <c r="Y48">
+        <v>75.56</v>
+      </c>
+      <c r="Z48">
+        <v>-1.01</v>
+      </c>
       <c r="AC48" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4897,22 +5740,25 @@
       <c r="AG48">
         <v>4.09100341796875</v>
       </c>
-      <c r="AH48" t="s">
-        <v>171</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301117</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>19.99</v>
@@ -4930,7 +5776,7 @@
         <v>123750.62</v>
       </c>
       <c r="J49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4971,8 +5817,23 @@
       <c r="W49">
         <v>-0.1</v>
       </c>
+      <c r="X49">
+        <v>-3.99</v>
+      </c>
+      <c r="Y49">
+        <v>44.44</v>
+      </c>
+      <c r="Z49">
+        <v>3.69</v>
+      </c>
       <c r="AC49" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4980,22 +5841,25 @@
       <c r="AG49">
         <v>7.520877838134766</v>
       </c>
-      <c r="AH49" t="s">
-        <v>171</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301120</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.81</v>
@@ -5013,7 +5877,7 @@
         <v>37991.13</v>
       </c>
       <c r="J50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5054,8 +5918,23 @@
       <c r="W50">
         <v>-1.14</v>
       </c>
+      <c r="X50">
+        <v>-1.78</v>
+      </c>
+      <c r="Y50">
+        <v>13.61</v>
+      </c>
+      <c r="Z50">
+        <v>1.04</v>
+      </c>
       <c r="AC50" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5063,22 +5942,25 @@
       <c r="AG50">
         <v>2.057097911834717</v>
       </c>
-      <c r="AH50" t="s">
-        <v>171</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301123</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-3.74</v>
@@ -5096,7 +5978,7 @@
         <v>59408.72</v>
       </c>
       <c r="J51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5137,8 +6019,23 @@
       <c r="W51">
         <v>-0.46</v>
       </c>
+      <c r="X51">
+        <v>5.73</v>
+      </c>
+      <c r="Y51">
+        <v>33.4</v>
+      </c>
+      <c r="Z51">
+        <v>8.06</v>
+      </c>
       <c r="AC51" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5146,22 +6043,25 @@
       <c r="AG51">
         <v>2.920568704605103</v>
       </c>
-      <c r="AH51" t="s">
-        <v>171</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301161</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>7.5</v>
@@ -5179,7 +6079,7 @@
         <v>77863.8</v>
       </c>
       <c r="J52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5220,8 +6120,23 @@
       <c r="W52">
         <v>3.2</v>
       </c>
+      <c r="X52">
+        <v>6.52</v>
+      </c>
+      <c r="Y52">
+        <v>43.47</v>
+      </c>
+      <c r="Z52">
+        <v>17.55</v>
+      </c>
       <c r="AC52" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5229,22 +6144,25 @@
       <c r="AG52">
         <v>4.514728546142578</v>
       </c>
-      <c r="AH52" t="s">
-        <v>171</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301200</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-0.19</v>
@@ -5262,7 +6180,7 @@
         <v>78331.89999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K53">
         <v>11</v>
@@ -5303,8 +6221,23 @@
       <c r="W53">
         <v>0.89</v>
       </c>
+      <c r="X53">
+        <v>6.32</v>
+      </c>
+      <c r="Y53">
+        <v>95</v>
+      </c>
+      <c r="Z53">
+        <v>8.16</v>
+      </c>
       <c r="AC53" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5312,22 +6245,25 @@
       <c r="AG53">
         <v>0.9443420767784119</v>
       </c>
-      <c r="AH53" t="s">
-        <v>171</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301213</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-7.35</v>
@@ -5345,7 +6281,7 @@
         <v>54148.89</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -5386,8 +6322,23 @@
       <c r="W54">
         <v>-0.87</v>
       </c>
+      <c r="X54">
+        <v>-1.25</v>
+      </c>
+      <c r="Y54">
+        <v>71.86</v>
+      </c>
+      <c r="Z54">
+        <v>1.18</v>
+      </c>
       <c r="AC54" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5395,22 +6346,25 @@
       <c r="AG54">
         <v>2.842068195343018</v>
       </c>
-      <c r="AH54" t="s">
-        <v>171</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301248</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5428,7 +6382,7 @@
         <v>38467.49</v>
       </c>
       <c r="J55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5469,8 +6423,23 @@
       <c r="W55">
         <v>0.12</v>
       </c>
+      <c r="X55">
+        <v>-4.52</v>
+      </c>
+      <c r="Y55">
+        <v>28.23</v>
+      </c>
+      <c r="Z55">
+        <v>-0.21</v>
+      </c>
       <c r="AC55" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5478,22 +6447,25 @@
       <c r="AG55">
         <v>4.180336952209473</v>
       </c>
-      <c r="AH55" t="s">
-        <v>171</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301251</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-0.04</v>
@@ -5511,7 +6483,7 @@
         <v>68666.16</v>
       </c>
       <c r="J56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5552,8 +6524,23 @@
       <c r="W56">
         <v>-0.45</v>
       </c>
+      <c r="X56">
+        <v>-2.05</v>
+      </c>
+      <c r="Y56">
+        <v>47.37</v>
+      </c>
+      <c r="Z56">
+        <v>-0.02</v>
+      </c>
       <c r="AC56" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5561,22 +6548,25 @@
       <c r="AG56">
         <v>0.059984490275383</v>
       </c>
-      <c r="AH56" t="s">
-        <v>171</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301285</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-0.31</v>
@@ -5594,7 +6584,7 @@
         <v>25903.69</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -5635,8 +6625,23 @@
       <c r="W57">
         <v>-0.18</v>
       </c>
+      <c r="X57">
+        <v>-1.46</v>
+      </c>
+      <c r="Y57">
+        <v>46.1</v>
+      </c>
+      <c r="Z57">
+        <v>2.22</v>
+      </c>
       <c r="AC57" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5644,22 +6649,25 @@
       <c r="AG57">
         <v>4.704484939575195</v>
       </c>
-      <c r="AH57" t="s">
-        <v>171</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301306</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-3.42</v>
@@ -5677,7 +6685,7 @@
         <v>63565.88</v>
       </c>
       <c r="J58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K58">
         <v>12</v>
@@ -5718,8 +6726,23 @@
       <c r="W58">
         <v>-0.08</v>
       </c>
+      <c r="X58">
+        <v>3.1</v>
+      </c>
+      <c r="Y58">
+        <v>72.8</v>
+      </c>
+      <c r="Z58">
+        <v>6.93</v>
+      </c>
       <c r="AC58" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5727,22 +6750,25 @@
       <c r="AG58">
         <v>5.385181903839111</v>
       </c>
-      <c r="AH58" t="s">
-        <v>171</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301322</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>3.44</v>
@@ -5760,7 +6786,7 @@
         <v>36304.4</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5801,8 +6827,23 @@
       <c r="W59">
         <v>-0.36</v>
       </c>
+      <c r="X59">
+        <v>-5.06</v>
+      </c>
+      <c r="Y59">
+        <v>32.8</v>
+      </c>
+      <c r="Z59">
+        <v>-1.8</v>
+      </c>
       <c r="AC59" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5810,22 +6851,25 @@
       <c r="AG59">
         <v>0.5249899625778198</v>
       </c>
-      <c r="AH59" t="s">
-        <v>171</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301357</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>1.32</v>
@@ -5843,7 +6887,7 @@
         <v>268003.66</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K60">
         <v>8</v>
@@ -5884,8 +6928,23 @@
       <c r="W60">
         <v>-4.2</v>
       </c>
+      <c r="X60">
+        <v>-11.24</v>
+      </c>
+      <c r="Y60">
+        <v>153.56</v>
+      </c>
+      <c r="Z60">
+        <v>-4.02</v>
+      </c>
       <c r="AC60" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -5893,22 +6952,25 @@
       <c r="AG60">
         <v>5.841356754302979</v>
       </c>
-      <c r="AH60" t="s">
-        <v>171</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301389</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-8.109999999999999</v>
@@ -5926,7 +6988,7 @@
         <v>139286.66</v>
       </c>
       <c r="J61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <v>23</v>
@@ -5967,8 +7029,23 @@
       <c r="W61">
         <v>-0.13</v>
       </c>
+      <c r="X61">
+        <v>-0.73</v>
+      </c>
+      <c r="Y61">
+        <v>52.1</v>
+      </c>
+      <c r="Z61">
+        <v>2.16</v>
+      </c>
       <c r="AC61" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5976,22 +7053,25 @@
       <c r="AG61">
         <v>4.858856201171875</v>
       </c>
-      <c r="AH61" t="s">
-        <v>171</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301392</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>8.210000000000001</v>
@@ -6009,7 +7089,7 @@
         <v>67661.19</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <v>8</v>
@@ -6050,8 +7130,23 @@
       <c r="W62">
         <v>0.23</v>
       </c>
+      <c r="X62">
+        <v>-8.35</v>
+      </c>
+      <c r="Y62">
+        <v>177.5</v>
+      </c>
+      <c r="Z62">
+        <v>-0.11</v>
+      </c>
       <c r="AC62" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6059,22 +7154,25 @@
       <c r="AG62">
         <v>3.556330680847168</v>
       </c>
-      <c r="AH62" t="s">
-        <v>171</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301397</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>5.27</v>
@@ -6092,7 +7190,7 @@
         <v>57135.17</v>
       </c>
       <c r="J63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6133,8 +7231,23 @@
       <c r="W63">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X63">
+        <v>7.53</v>
+      </c>
+      <c r="Y63">
+        <v>41.38</v>
+      </c>
+      <c r="Z63">
+        <v>8.550000000000001</v>
+      </c>
       <c r="AC63" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6142,22 +7255,25 @@
       <c r="AG63">
         <v>8.12312126159668</v>
       </c>
-      <c r="AH63" t="s">
-        <v>171</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301421</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.21</v>
@@ -6175,7 +7291,7 @@
         <v>86407.53999999999</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6216,8 +7332,23 @@
       <c r="W64">
         <v>0.34</v>
       </c>
+      <c r="X64">
+        <v>-4.4</v>
+      </c>
+      <c r="Y64">
+        <v>82.3</v>
+      </c>
+      <c r="Z64">
+        <v>-0.58</v>
+      </c>
       <c r="AC64" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6225,22 +7356,25 @@
       <c r="AG64">
         <v>2.41909122467041</v>
       </c>
-      <c r="AH64" t="s">
-        <v>171</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301489</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-8.58</v>
@@ -6258,7 +7392,7 @@
         <v>142589.59</v>
       </c>
       <c r="J65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K65">
         <v>6</v>
@@ -6299,8 +7433,23 @@
       <c r="W65">
         <v>0.25</v>
       </c>
+      <c r="X65">
+        <v>5.28</v>
+      </c>
+      <c r="Y65">
+        <v>139.59</v>
+      </c>
+      <c r="Z65">
+        <v>8.289999999999999</v>
+      </c>
       <c r="AC65" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6308,22 +7457,25 @@
       <c r="AG65">
         <v>6.595339298248291</v>
       </c>
-      <c r="AH65" t="s">
-        <v>171</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301529</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-0.6</v>
@@ -6341,7 +7493,7 @@
         <v>46053.6</v>
       </c>
       <c r="J66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K66">
         <v>14</v>
@@ -6382,8 +7534,23 @@
       <c r="W66">
         <v>1.27</v>
       </c>
+      <c r="X66">
+        <v>-2.59</v>
+      </c>
+      <c r="Y66">
+        <v>75.72</v>
+      </c>
+      <c r="Z66">
+        <v>2.2</v>
+      </c>
       <c r="AC66" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6391,22 +7558,25 @@
       <c r="AG66">
         <v>0.477603405714035</v>
       </c>
-      <c r="AH66" t="s">
-        <v>171</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688011</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.52</v>
@@ -6424,7 +7594,7 @@
         <v>31005.2</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -6465,8 +7635,23 @@
       <c r="W67">
         <v>-0.24</v>
       </c>
+      <c r="X67">
+        <v>-2.24</v>
+      </c>
+      <c r="Y67">
+        <v>48.5</v>
+      </c>
+      <c r="Z67">
+        <v>1.61</v>
+      </c>
       <c r="AC67" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6474,22 +7659,25 @@
       <c r="AG67">
         <v>4.845207691192627</v>
       </c>
-      <c r="AH67" t="s">
-        <v>171</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688039</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>1.06</v>
@@ -6507,7 +7695,7 @@
         <v>99204.78999999999</v>
       </c>
       <c r="J68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K68">
         <v>5</v>
@@ -6548,8 +7736,23 @@
       <c r="W68">
         <v>-1.98</v>
       </c>
+      <c r="X68">
+        <v>-10.27</v>
+      </c>
+      <c r="Y68">
+        <v>57</v>
+      </c>
+      <c r="Z68">
+        <v>-3.68</v>
+      </c>
       <c r="AC68" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6557,22 +7760,25 @@
       <c r="AG68">
         <v>-0.6003407835960388</v>
       </c>
-      <c r="AH68" t="s">
-        <v>171</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688048</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-2.89</v>
@@ -6590,7 +7796,7 @@
         <v>91339.91</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -6631,8 +7837,23 @@
       <c r="W69">
         <v>0.24</v>
       </c>
+      <c r="X69">
+        <v>-1.21</v>
+      </c>
+      <c r="Y69">
+        <v>77.3</v>
+      </c>
+      <c r="Z69">
+        <v>1.84</v>
+      </c>
       <c r="AC69" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6640,22 +7861,25 @@
       <c r="AG69">
         <v>1.040759086608887</v>
       </c>
-      <c r="AH69" t="s">
-        <v>171</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688059</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-0.64</v>
@@ -6673,7 +7897,7 @@
         <v>28075.98</v>
       </c>
       <c r="J70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -6714,8 +7938,23 @@
       <c r="W70">
         <v>-0.25</v>
       </c>
+      <c r="X70">
+        <v>0.15</v>
+      </c>
+      <c r="Y70">
+        <v>66.38</v>
+      </c>
+      <c r="Z70">
+        <v>1.45</v>
+      </c>
       <c r="AC70" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6723,22 +7962,25 @@
       <c r="AG70">
         <v>1.893102288246155</v>
       </c>
-      <c r="AH70" t="s">
-        <v>171</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688081</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>5.18</v>
@@ -6756,7 +7998,7 @@
         <v>35126.62</v>
       </c>
       <c r="J71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6797,8 +8039,23 @@
       <c r="W71">
         <v>0.61</v>
       </c>
+      <c r="X71">
+        <v>-4.57</v>
+      </c>
+      <c r="Y71">
+        <v>28.71</v>
+      </c>
+      <c r="Z71">
+        <v>1.66</v>
+      </c>
       <c r="AC71" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6806,22 +8063,25 @@
       <c r="AG71">
         <v>1.479660868644714</v>
       </c>
-      <c r="AH71" t="s">
-        <v>171</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688084</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>6.28</v>
@@ -6839,7 +8099,7 @@
         <v>49397.6</v>
       </c>
       <c r="J72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6880,8 +8140,23 @@
       <c r="W72">
         <v>0.47</v>
       </c>
+      <c r="X72">
+        <v>-9.02</v>
+      </c>
+      <c r="Y72">
+        <v>112.1</v>
+      </c>
+      <c r="Z72">
+        <v>0.18</v>
+      </c>
       <c r="AC72" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6889,22 +8164,25 @@
       <c r="AG72">
         <v>1.970629096031189</v>
       </c>
-      <c r="AH72" t="s">
-        <v>171</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688110</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -6922,7 +8200,7 @@
         <v>447481.04</v>
       </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K73">
         <v>8</v>
@@ -6963,8 +8241,23 @@
       <c r="W73">
         <v>1.18</v>
       </c>
+      <c r="X73">
+        <v>0.83</v>
+      </c>
+      <c r="Y73">
+        <v>73.81</v>
+      </c>
+      <c r="Z73">
+        <v>0.83</v>
+      </c>
       <c r="AC73" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6972,22 +8265,25 @@
       <c r="AG73">
         <v>13.77606201171875</v>
       </c>
-      <c r="AH73" t="s">
-        <v>171</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688118</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>5.02</v>
@@ -7005,7 +8301,7 @@
         <v>43161.13</v>
       </c>
       <c r="J74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -7046,8 +8342,23 @@
       <c r="W74">
         <v>0.32</v>
       </c>
+      <c r="X74">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>32.83</v>
+      </c>
+      <c r="Z74">
+        <v>-2.58</v>
+      </c>
       <c r="AC74" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7055,22 +8366,25 @@
       <c r="AG74">
         <v>1.438512563705444</v>
       </c>
-      <c r="AH74" t="s">
-        <v>171</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688167</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>3.59</v>
@@ -7088,7 +8402,7 @@
         <v>95481.25999999999</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7129,8 +8443,23 @@
       <c r="W75">
         <v>0.15</v>
       </c>
+      <c r="X75">
+        <v>-1.95</v>
+      </c>
+      <c r="Y75">
+        <v>106.5</v>
+      </c>
+      <c r="Z75">
+        <v>2.8</v>
+      </c>
       <c r="AC75" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7138,22 +8467,25 @@
       <c r="AG75">
         <v>3.437085866928101</v>
       </c>
-      <c r="AH75" t="s">
-        <v>171</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688210</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>0.58</v>
@@ -7171,7 +8503,7 @@
         <v>47703.76</v>
       </c>
       <c r="J76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -7212,8 +8544,23 @@
       <c r="W76">
         <v>0.27</v>
       </c>
+      <c r="X76">
+        <v>-9.34</v>
+      </c>
+      <c r="Y76">
+        <v>42.32</v>
+      </c>
+      <c r="Z76">
+        <v>-2.13</v>
+      </c>
       <c r="AC76" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7221,22 +8568,25 @@
       <c r="AG76">
         <v>3.347522497177124</v>
       </c>
-      <c r="AH76" t="s">
-        <v>171</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688258</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-2.16</v>
@@ -7254,7 +8604,7 @@
         <v>58907.65</v>
       </c>
       <c r="J77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K77">
         <v>7</v>
@@ -7295,8 +8645,23 @@
       <c r="W77">
         <v>-0.34</v>
       </c>
+      <c r="X77">
+        <v>-5.81</v>
+      </c>
+      <c r="Y77">
+        <v>72.98</v>
+      </c>
+      <c r="Z77">
+        <v>-1.38</v>
+      </c>
       <c r="AC77" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7304,22 +8669,25 @@
       <c r="AG77">
         <v>3.550273656845093</v>
       </c>
-      <c r="AH77" t="s">
-        <v>171</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688500</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-2.43</v>
@@ -7337,7 +8705,7 @@
         <v>41072.23</v>
       </c>
       <c r="J78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -7378,8 +8746,23 @@
       <c r="W78">
         <v>-0.32</v>
       </c>
+      <c r="X78">
+        <v>-0.95</v>
+      </c>
+      <c r="Y78">
+        <v>87</v>
+      </c>
+      <c r="Z78">
+        <v>-0.15</v>
+      </c>
       <c r="AC78" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7387,22 +8770,25 @@
       <c r="AG78">
         <v>1.051703572273254</v>
       </c>
-      <c r="AH78" t="s">
-        <v>171</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688502</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>3.5</v>
@@ -7420,7 +8806,7 @@
         <v>57371.37</v>
       </c>
       <c r="J79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K79">
         <v>9</v>
@@ -7461,8 +8847,23 @@
       <c r="W79">
         <v>0.65</v>
       </c>
+      <c r="X79">
+        <v>-7.08</v>
+      </c>
+      <c r="Y79">
+        <v>355.53</v>
+      </c>
+      <c r="Z79">
+        <v>-1.24</v>
+      </c>
       <c r="AC79" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7470,22 +8871,25 @@
       <c r="AG79">
         <v>4.349578857421875</v>
       </c>
-      <c r="AH79" t="s">
-        <v>171</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688507</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>0.35</v>
@@ -7503,7 +8907,7 @@
         <v>90998.96000000001</v>
       </c>
       <c r="J80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7544,8 +8948,23 @@
       <c r="W80">
         <v>-0.28</v>
       </c>
+      <c r="X80">
+        <v>-7.06</v>
+      </c>
+      <c r="Y80">
+        <v>119.44</v>
+      </c>
+      <c r="Z80">
+        <v>4.04</v>
+      </c>
       <c r="AC80" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7553,22 +8972,25 @@
       <c r="AG80">
         <v>0.6836561560630798</v>
       </c>
-      <c r="AH80" t="s">
-        <v>171</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688556</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-1.96</v>
@@ -7586,7 +9008,7 @@
         <v>90621.64</v>
       </c>
       <c r="J81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K81">
         <v>9</v>
@@ -7627,8 +9049,23 @@
       <c r="W81">
         <v>-0.5</v>
       </c>
+      <c r="X81">
+        <v>4</v>
+      </c>
+      <c r="Y81">
+        <v>12.87</v>
+      </c>
+      <c r="Z81">
+        <v>7.25</v>
+      </c>
       <c r="AC81" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7636,22 +9073,25 @@
       <c r="AG81">
         <v>3.992068290710449</v>
       </c>
-      <c r="AH81" t="s">
-        <v>171</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688630</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>2.18</v>
@@ -7669,7 +9109,7 @@
         <v>135866.75</v>
       </c>
       <c r="J82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K82">
         <v>11</v>
@@ -7710,8 +9150,23 @@
       <c r="W82">
         <v>-0.23</v>
       </c>
+      <c r="X82">
+        <v>10.57</v>
+      </c>
+      <c r="Y82">
+        <v>138.19</v>
+      </c>
+      <c r="Z82">
+        <v>13.18</v>
+      </c>
       <c r="AC82" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7719,22 +9174,25 @@
       <c r="AG82">
         <v>4.751915454864502</v>
       </c>
-      <c r="AH82" t="s">
-        <v>171</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688711</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-5.57</v>
@@ -7752,7 +9210,7 @@
         <v>78417.64</v>
       </c>
       <c r="J83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7793,8 +9251,23 @@
       <c r="W83">
         <v>-1.41</v>
       </c>
+      <c r="X83">
+        <v>1.02</v>
+      </c>
+      <c r="Y83">
+        <v>29.88</v>
+      </c>
+      <c r="Z83">
+        <v>1.36</v>
+      </c>
       <c r="AC83" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7802,22 +9275,25 @@
       <c r="AG83">
         <v>-0.1848377734422684</v>
       </c>
-      <c r="AH83" t="s">
-        <v>171</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688788</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-7.84</v>
@@ -7835,7 +9311,7 @@
         <v>84935.09</v>
       </c>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -7876,8 +9352,23 @@
       <c r="W84">
         <v>-0.43</v>
       </c>
+      <c r="X84">
+        <v>-1.33</v>
+      </c>
+      <c r="Y84">
+        <v>76.58</v>
+      </c>
+      <c r="Z84">
+        <v>1.97</v>
+      </c>
       <c r="AC84" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7885,22 +9376,25 @@
       <c r="AG84">
         <v>5.642770767211914</v>
       </c>
-      <c r="AH84" t="s">
-        <v>171</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688800</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>4.94</v>
@@ -7918,7 +9412,7 @@
         <v>197610.27</v>
       </c>
       <c r="J85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -7959,8 +9453,23 @@
       <c r="W85">
         <v>1.09</v>
       </c>
+      <c r="X85">
+        <v>-6.43</v>
+      </c>
+      <c r="Y85">
+        <v>69.5</v>
+      </c>
+      <c r="Z85">
+        <v>-1.99</v>
+      </c>
       <c r="AC85" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -7968,8 +9477,11 @@
       <c r="AG85">
         <v>3.685760021209717</v>
       </c>
-      <c r="AH85" t="s">
-        <v>172</v>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
